--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -36,13 +36,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,43 +377,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>201511438</v>
+      <c r="A2" s="1">
+        <v>201411851</v>
       </c>
       <c r="B2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>201511281</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>201410679</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>201411491</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>201411491</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
